--- a/testcases/Anna Krynychna test case .xlsx
+++ b/testcases/Anna Krynychna test case .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0309641-5E5D-4E4C-ABC1-8CABD3D0EC1D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B0AF58-F95F-4266-86E0-7A470E285021}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,9 +256,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>30+45</t>
-  </si>
-  <si>
     <t xml:space="preserve">Check to enter min  numbers </t>
   </si>
   <si>
@@ -329,6 +326,9 @@
   </si>
   <si>
     <t>max decimal places (0,0…..00001)</t>
+  </si>
+  <si>
+    <t>30+46</t>
   </si>
 </sst>
 </file>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,13 +740,13 @@
         <v>12</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>17</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -766,13 +766,13 @@
         <v>13</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G4">
         <v>18</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -792,13 +792,13 @@
         <v>14</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G5">
         <v>19</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -818,13 +818,13 @@
         <v>15</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G6">
         <v>20</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -844,13 +844,13 @@
         <v>16</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G7">
         <v>21</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -928,7 +928,7 @@
         <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>14</v>
@@ -970,7 +970,7 @@
         <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -984,7 +984,7 @@
         <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -1026,7 +1026,7 @@
         <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
@@ -1040,7 +1040,7 @@
         <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
@@ -1082,7 +1082,7 @@
         <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
         <v>35</v>
@@ -1096,7 +1096,7 @@
         <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
         <v>34</v>
@@ -1186,7 +1186,7 @@
         <v>23</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
         <v>70</v>
@@ -1203,7 +1203,7 @@
         <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B37" s="4"/>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1223,7 +1223,7 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1231,7 +1231,7 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1239,7 +1239,7 @@
         <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1247,7 +1247,7 @@
         <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1255,7 +1255,7 @@
         <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/testcases/Anna Krynychna test case .xlsx
+++ b/testcases/Anna Krynychna test case .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B0AF58-F95F-4266-86E0-7A470E285021}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4189122-B61C-406F-9908-BD143785BA0C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -34,9 +34,6 @@
     <t>List of equivalent classes</t>
   </si>
   <si>
-    <t>Positive integers</t>
-  </si>
-  <si>
     <t>Negative integers</t>
   </si>
   <si>
@@ -329,26 +326,76 @@
   </si>
   <si>
     <t>30+46</t>
+  </si>
+  <si>
+    <t>Boundary values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive integers </t>
+  </si>
+  <si>
+    <t>(-1) ,(-9)</t>
+  </si>
+  <si>
+    <t>0.1, 0.99999999</t>
+  </si>
+  <si>
+    <t>number of signs:</t>
+  </si>
+  <si>
+    <t>number of simbols after comma:</t>
+  </si>
+  <si>
+    <t>0,1,9,10</t>
+  </si>
+  <si>
+    <t>0,1,9</t>
+  </si>
+  <si>
+    <t>11,99,100</t>
+  </si>
+  <si>
+    <t>111, 999,1000</t>
+  </si>
+  <si>
+    <t>1111, 9999 , 10000</t>
+  </si>
+  <si>
+    <t>111111111, 999999999 , 10000000000</t>
+  </si>
+  <si>
+    <t>0, 0,1 ,  0,99</t>
+  </si>
+  <si>
+    <t>0,001 , 0,999</t>
+  </si>
+  <si>
+    <t>0,01 , 0,99</t>
+  </si>
+  <si>
+    <t>0,0001,  0,9999</t>
+  </si>
+  <si>
+    <t>(-0,111111111),(-0,99999999)</t>
+  </si>
+  <si>
+    <t>0,000000001, 0,999999999</t>
+  </si>
+  <si>
+    <t>(-0.3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
@@ -387,20 +434,24 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,565 +748,630 @@
     <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.140625" customWidth="1"/>
     <col min="8" max="8" width="36.140625" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18">
+        <v>14</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20">
+        <v>16</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22">
+        <v>17</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="G23">
+        <v>18</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="G24">
+        <v>19</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25">
+        <v>20</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D26" s="4"/>
+      <c r="G26">
+        <v>21</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="4">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3">
-        <v>17</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4">
-        <v>13</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4">
-        <v>18</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5">
-        <v>14</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5">
-        <v>19</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6">
-        <v>20</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7">
-        <v>16</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7">
-        <v>21</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>7</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>8</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>9</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>10</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>11</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>12</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" t="s">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>13</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>14</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>15</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>16</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>17</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>18</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>19</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="C31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>20</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>21</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>22</v>
-      </c>
-      <c r="B34" s="4">
-        <v>11</v>
-      </c>
-      <c r="C34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>23</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>24</v>
-      </c>
-      <c r="B36" s="4">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>25</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>26</v>
-      </c>
-      <c r="B38" s="7">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>27</v>
-      </c>
-      <c r="C39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>28</v>
-      </c>
-      <c r="C40" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>29</v>
-      </c>
-      <c r="C41" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>30</v>
-      </c>
-      <c r="C42" t="s">
-        <v>84</v>
+      <c r="D31" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
